--- a/output/google_maps_data_Klinik_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Klinik_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Klinik+Kulon+Progo/@-7.8053056,110.2139841,11z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
           <t>0811-2811-123</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>-7.862291</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.862291</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.158019</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Kusuma+Medisca/@-7.8622906,109.8696276,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3bf7b56205:0x6d24b7996a4165c0!8m2!3d-7.8622906!4d110.1580187!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNiM05ZTUhCM1JSQULgAQD6AQQIABAy!16s%2Fg%2F11h_82d0ht?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Kusuma+Medisca/@-7.8622906,109.8696276,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3bf7b56205:0x6d24b7996a4165c0!8m2!3d-7.8622906!4d110.1580187!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNiM05ZTUhCM1JSQULgAQD6AQQIABAy!16s%2Fg%2F11h_82d0ht?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -571,25 +564,24 @@
           <t>(0274) 774651</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>-7.863918</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.863918</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.152403</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kartika+0731+Kodim+Kulon+Progo/@-7.8622906,109.8696276,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb39fc5d83db:0xf7dc4b0009c44388!8m2!3d-7.8639177!4d110.1524034!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5sTVVwSFVqZDNSUkFC4AEA-gEECAAQJw!16s%2Fg%2F11f_f6p47j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kartika+0731+Kodim+Kulon+Progo/@-7.8622906,109.8696276,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb39fc5d83db:0xf7dc4b0009c44388!8m2!3d-7.8639177!4d110.1524034!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5sTVVwSFVqZDNSUkFC4AEA-gEECAAQJw!16s%2Fg%2F11f_f6p47j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -612,25 +604,24 @@
           <t>(0274) 774254</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>-7.842048</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.842048</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.171365</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pengasih+Husada/@-7.8622906,109.8696276,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afae3f47ae4e9:0xdb634bc1dbd75316!8m2!3d-7.8420483!4d110.1713651!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmhYM0p1VUcxQlJSQULgAQD6AQQIABBD!16s%2Fg%2F11c37zx4mr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pengasih+Husada/@-7.8622906,109.8696276,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afae3f47ae4e9:0xdb634bc1dbd75316!8m2!3d-7.8420483!4d110.1713651!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmhYM0p1VUcxQlJSQULgAQD6AQQIABBD!16s%2Fg%2F11c37zx4mr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -657,25 +648,24 @@
           <t>0822-5814-3101</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>3.549028</v>
       </c>
       <c r="G6" t="n">
-        <v>3.549028</v>
-      </c>
-      <c r="H6" t="n">
         <v>98.785479</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Kulon+Progo/@3.549028,98.497088,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x3031377a04e6243f:0xb3304282b3ce1d4d!8m2!3d3.549028!4d98.7854791!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjJlSEpMUWxwbkVBReABAPoBBAgAEEk!16s%2Fg%2F11c1wsp5qy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Kulon+Progo/@3.549028,98.497088,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x3031377a04e6243f:0xb3304282b3ce1d4d!8m2!3d3.549028!4d98.7854791!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjJlSEpMUWxwbkVBReABAPoBBAgAEEk!16s%2Fg%2F11c1wsp5qy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -698,25 +688,24 @@
           <t>(0274) 773430</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.86736</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.86736</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.149716</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+PKU+Muhammadiyah+Wates/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb37c9acde55:0x2cb9508fcfe31365!8m2!3d-7.86736!4d110.149716!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmllRTVET1U1M0VBReABAPoBBAgAECU!16s%2Fg%2F1pzrvc1c7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+PKU+Muhammadiyah+Wates/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb37c9acde55:0x2cb9508fcfe31365!8m2!3d-7.86736!4d110.149716!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmllRTVET1U1M0VBReABAPoBBAgAECU!16s%2Fg%2F1pzrvc1c7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -739,25 +728,24 @@
           <t>0812-2715-3007</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>-7.760151</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.760151</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.210424</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Harapan+Sehat/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af11f9f20fd05:0xf552ed52998c9de9!8m2!3d-7.7601513!4d110.2104235!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndNazVmUzBSbkVBReABAPoBBAgAEEg!16s%2Fg%2F11bwn2tdkn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Harapan+Sehat/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af11f9f20fd05:0xf552ed52998c9de9!8m2!3d-7.7601513!4d110.2104235!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndNazVmUzBSbkVBReABAPoBBAgAEEg!16s%2Fg%2F11bwn2tdkn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -780,25 +768,24 @@
           <t>0895-2733-6233</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.94354</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.94354</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.208848</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+'Aisyiyah+Sewugalur/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afddbc7a324d1:0xe1433bae0448e440!8m2!3d-7.9435401!4d110.2088481!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgESbWF0ZXJuaXR5X2hvc3BpdGFsmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI1Tmw4MmVuUkJSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11b6dqbfdm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+'Aisyiyah+Sewugalur/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afddbc7a324d1:0xe1433bae0448e440!8m2!3d-7.9435401!4d110.2088481!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgESbWF0ZXJuaXR5X2hvc3BpdGFsmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI1Tmw4MmVuUkJSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11b6dqbfdm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -821,25 +808,24 @@
           <t>(0274) 774876</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>-7.873492</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.873492</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.154131</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Citra+Paramedika/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb4d9e566385:0x27aec8553a83d4bb!8m2!3d-7.8734919!4d110.1541309!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlNbGxtVlVkbkVBReABAPoBBAgAEDk!16s%2Fg%2F11w7c91gnw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Citra+Paramedika/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb4d9e566385:0x27aec8553a83d4bb!8m2!3d-7.8734919!4d110.1541309!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlNbGxtVlVkbkVBReABAPoBBAgAEDk!16s%2Fg%2F11w7c91gnw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -858,25 +844,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>-7.902098</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.902098</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.202555</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Karya+Mulia/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc6f2b389287:0x57a464cb9a6b533a!8m2!3d-7.9020977!4d110.202555!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjJNR05tYTB4bkVBReABAPoBBAgAECc!16s%2Fg%2F11cssmt245?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Karya+Mulia/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc6f2b389287:0x57a464cb9a6b533a!8m2!3d-7.9020977!4d110.202555!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjJNR05tYTB4bkVBReABAPoBBAgAECc!16s%2Fg%2F11cssmt245?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -899,25 +884,24 @@
           <t>0852-2637-3307</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.896472</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.896472</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.203693</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DOKTER+PRAKTEK+dr.+Wijanarto+%26+dr.+Gilang+Liesmelati/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc12da4cf173:0x4c7c2830071f3f48!8m2!3d-7.896472!4d110.2036933!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFjazUyTWt4UkVBReABAPoBBAgAEEI!16s%2Fg%2F11f08k0ktk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DOKTER+PRAKTEK+dr.+Wijanarto+%26+dr.+Gilang+Liesmelati/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc12da4cf173:0x4c7c2830071f3f48!8m2!3d-7.896472!4d110.2036933!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFjazUyTWt4UkVBReABAPoBBAgAEEI!16s%2Fg%2F11f08k0ktk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -940,25 +924,24 @@
           <t>(0274) 3040000</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>-7.86236</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.86236</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.158024</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PMB+Sri+Suharti+(Klinik+Kusuma+Medisca)/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3bf7eb5387:0xa716357de895a0d3!8m2!3d-7.8623603!4d110.1580238!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHbWlkd2lmZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSE0zRjZVVk5CRUFF4AEA-gEECAAQRQ!16s%2Fg%2F11b6x99_s1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PMB+Sri+Suharti+(Klinik+Kusuma+Medisca)/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3bf7eb5387:0xa716357de895a0d3!8m2!3d-7.8623603!4d110.1580238!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHbWlkd2lmZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSE0zRjZVVk5CRUFF4AEA-gEECAAQRQ!16s%2Fg%2F11b6x99_s1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -981,25 +964,24 @@
           <t>(0274) 773259</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.1</v>
+        <v>-7.861086</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.861086</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.159682</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Siti+Chotijah/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae359d29bf9ed:0x86d9a9fe83328339!8m2!3d-7.8610858!4d110.1596824!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgESbWF0ZXJuaXR5X2hvc3BpdGFsmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJmTm1OMk5FdG5FQUXgAQD6AQQIABBD!16s%2Fg%2F1pzrpdz46?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Siti+Chotijah/@-7.86736,109.8613249,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae359d29bf9ed:0x86d9a9fe83328339!8m2!3d-7.8610858!4d110.1596824!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgESbWF0ZXJuaXR5X2hvc3BpdGFsmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJmTm1OMk5FdG5FQUXgAQD6AQQIABBD!16s%2Fg%2F1pzrpdz46?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1022,25 +1004,24 @@
           <t>0831-7321-0596</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>3.528465</v>
       </c>
       <c r="G15" t="n">
-        <v>3.528465</v>
-      </c>
-      <c r="H15" t="n">
         <v>98.75987600000001</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+KULON+PROGO+BANGUN+SARI/@3.5284646,98.4714853,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x3031395316f6e35f:0x39f94b0b38527504!8m2!3d3.5284646!4d98.7598764!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUndNbkJmUjB4UkVBReABAPoBBQjHARBA!16s%2Fg%2F11smjjn01z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+KULON+PROGO+BANGUN+SARI/@3.5284646,98.4714853,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x3031395316f6e35f:0x39f94b0b38527504!8m2!3d3.5284646!4d98.7598764!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUndNbkJmUjB4UkVBReABAPoBBQjHARBA!16s%2Fg%2F11smjjn01z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1063,25 +1044,24 @@
           <t>(0274) 774844</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>-7.859416</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.859416</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.155647</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+PADMA+PARADINA/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3b18c75e6b:0x2ffe52d88058ef23!8m2!3d-7.8594155!4d110.1556472!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTk9kM0pQTUhCblJSQULgAQD6AQQIABBI!16s%2Fg%2F11b5pj6yr7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+PADMA+PARADINA/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3b18c75e6b:0x2ffe52d88058ef23!8m2!3d-7.8594155!4d110.1556472!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTk9kM0pQTUhCblJSQULgAQD6AQQIABBI!16s%2Fg%2F11b5pj6yr7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1108,25 +1088,24 @@
           <t>0822-1300-0706</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.853828</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.853828</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.166774</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GIGINESIA+(Praktek+Dokter+Gigi)/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3abbfb3b07:0x27b45471fafc85f9!8m2!3d-7.8538279!4d110.1667736!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgENZGVudGFsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSU5EaElaREpCUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11rpph9mbk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GIGINESIA+(Praktek+Dokter+Gigi)/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3abbfb3b07:0x27b45471fafc85f9!8m2!3d-7.8538279!4d110.1667736!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgENZGVudGFsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSU5EaElaREpCUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11rpph9mbk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -1145,25 +1124,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.93375</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.93375</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.146563</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+AISYIYAH+PANJATAN/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afd76e79a57c9:0x20c473b96e532625!8m2!3d-7.9337498!4d110.1465628!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlVYMlpUZEdGUkVBReABAPoBBAgAECs!16s%2Fg%2F11f62f3ys3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+AISYIYAH+PANJATAN/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afd76e79a57c9:0x20c473b96e532625!8m2!3d-7.9337498!4d110.1465628!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlVYMlpUZEdGUkVBReABAPoBBAgAECs!16s%2Fg%2F11f62f3ys3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1186,25 +1164,24 @@
           <t>0821-3723-5893</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.865598</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.865598</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.157651</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sunat+Modern+%26+Perawatan+Luka+Modern+Adikarta+Husada+Wates+Kulon+Progo/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb03bc988481:0xadca302aa06e2a7c!8m2!3d-7.8655981!4d110.1576511!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk1jRXRxU1U1bkVBReABAPoBBAgAEDU!16s%2Fg%2F11rb45qbpf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sunat+Modern+%26+Perawatan+Luka+Modern+Adikarta+Husada+Wates+Kulon+Progo/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb03bc988481:0xadca302aa06e2a7c!8m2!3d-7.8655981!4d110.1576511!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk1jRXRxU1U1bkVBReABAPoBBAgAEDU!16s%2Fg%2F11rb45qbpf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1227,25 +1204,24 @@
           <t>0852-9225-1550</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.868261</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.868261</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.181586</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Dokter+Gigi+Kinaryo+Palupi/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb735ef7f283:0x80c8a7c6aa30eebc!8m2!3d-7.868261!4d110.1815863!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ1kZW50YWxfY2xpbmlj4AEA!16s%2Fg%2F11c0rs2cr2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Dokter+Gigi+Kinaryo+Palupi/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb735ef7f283:0x80c8a7c6aa30eebc!8m2!3d-7.868261!4d110.1815863!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ1kZW50YWxfY2xpbmlj4AEA!16s%2Fg%2F11c0rs2cr2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1272,25 +1248,24 @@
           <t>0877-3816-7116</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>-7.930186</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.930186</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.20807</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RS+Pura+Raharja+Medika/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afdb5a9360a93:0x99d0e385ed1d8b3a!8m2!3d-7.9301861!4d110.2080702!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTViVmxMVDNGQlJSQULgAQD6AQQIABBI!16s%2Fg%2F11f0kxk6nc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RS+Pura+Raharja+Medika/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afdb5a9360a93:0x99d0e385ed1d8b3a!8m2!3d-7.9301861!4d110.2080702!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTViVmxMVDNGQlJSQULgAQD6AQQIABBI!16s%2Fg%2F11f0kxk6nc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>41 menit lalu</t>
         </is>
@@ -1313,25 +1288,24 @@
           <t>0813-2595-8144</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.8</v>
+        <v>-7.835833</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.835833</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.16737</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+Umum+dr.+Susilo+Pradyarto/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afae88be76537:0x67d24db04c0beb46!8m2!3d-7.8358333!4d110.1673703!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjRha3QyTVROM1JSQULgAQD6AQQIABAm!16s%2Fg%2F11c0xjxm7z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+Umum+dr.+Susilo+Pradyarto/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afae88be76537:0x67d24db04c0beb46!8m2!3d-7.8358333!4d110.1673703!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjRha3QyTVROM1JSQULgAQD6AQQIABAm!16s%2Fg%2F11c0xjxm7z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1354,25 +1328,24 @@
           <t>0823-2446-7785</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>-7.8504</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.8504</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.175138</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskemas+Pengasih+2/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af115000ff64d:0x406192ade41deb0a!8m2!3d-7.8503999!4d110.175138!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5NTFV3ek0zQjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11s7phns7l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskemas+Pengasih+2/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af115000ff64d:0x406192ade41deb0a!8m2!3d-7.8503999!4d110.175138!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5NTFV3ek0zQjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11s7phns7l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1395,25 +1368,24 @@
           <t>0877-3551-2626</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>-7.843586</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.843586</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.168286</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/kaffah+healthy+care+wates+kulon+progo/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afba8895c8cc3:0xbba54e84dad96d33!8m2!3d-7.8435863!4d110.1682855!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11j0bvx2lp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/kaffah+healthy+care+wates+kulon+progo/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afba8895c8cc3:0xbba54e84dad96d33!8m2!3d-7.8435863!4d110.1682855!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11j0bvx2lp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1440,25 +1412,24 @@
           <t>0811-3890-0679</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>-7.864204</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.864204</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.21134</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RSU+Queen+Latifa+Kulon+Progo/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbd74ea52cf9:0x621eb682968679f0!8m2!3d-7.8642039!4d110.2113404!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEQZ2VuZXJhbF9ob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSR01FczJZbUpCRUFF4AEA-gEECFIQRA!16s%2Fg%2F11h5_txx6z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RSU+Queen+Latifa+Kulon+Progo/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbd74ea52cf9:0x621eb682968679f0!8m2!3d-7.8642039!4d110.2113404!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEQZ2VuZXJhbF9ob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSR01FczJZbUpCRUFF4AEA-gEECFIQRA!16s%2Fg%2F11h5_txx6z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1485,25 +1456,24 @@
           <t>0812-6222-0909</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>-7.865225</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.865225</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.154773</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lanoq+Derma/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb5770e78c1b:0x5993334445156028!8m2!3d-7.8652255!4d110.1547727!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgENZGVybWF0b2xvZ2lzdJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VScWMyUlhRVVpuRUFF4AEA-gEECAAQQA!16s%2Fg%2F11qf_z2d0q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lanoq+Derma/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb5770e78c1b:0x5993334445156028!8m2!3d-7.8652255!4d110.1547727!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgENZGVybWF0b2xvZ2lzdJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VScWMyUlhRVVpuRUFF4AEA-gEECAAQQA!16s%2Fg%2F11qf_z2d0q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1526,25 +1496,24 @@
           <t>0853-2859-4339</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.7</v>
+        <v>-7.647952</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.647952</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.256101</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+dr.+Saeful+Anwar/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af50cd89582ef:0xda765b5632abc11d!8m2!3d-7.6479522!4d110.2561008!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11sbv1fcqk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+dr.+Saeful+Anwar/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af50cd89582ef:0xda765b5632abc11d!8m2!3d-7.6479522!4d110.2561008!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11sbv1fcqk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1567,25 +1536,24 @@
           <t>0895-3790-20622</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.767482</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.767482</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.209521</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+dr.+F.+Buwana,+M.Sc/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af199854cbcd5:0x7709a61b4ff17a22!8m2!3d-7.7674821!4d110.2095207!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUklhMGt5ZW5SblJSQULgAQD6AQQIABBH!16s%2Fg%2F11wc2vt3h2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+dr.+F.+Buwana,+M.Sc/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af199854cbcd5:0x7709a61b4ff17a22!8m2!3d-7.7674821!4d110.2095207!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUklhMGt5ZW5SblJSQULgAQD6AQQIABBH!16s%2Fg%2F11wc2vt3h2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1608,25 +1576,24 @@
           <t>0819-5955-4411</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.930037</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.930037</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.205291</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Savya+Aesthetic+Clinic/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afd3f01c93e99:0x335031999c62a412!8m2!3d-7.9300372!4d110.2052905!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEQc2tpbl9jYXJlX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVWFVOXliMUpCRUFF4AEA-gEECAAQJw!16s%2Fg%2F11t4b2bj7_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Savya+Aesthetic+Clinic/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afd3f01c93e99:0x335031999c62a412!8m2!3d-7.9300372!4d110.2052905!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEQc2tpbl9jYXJlX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVWFVOXliMUpCRUFF4AEA-gEECAAQJw!16s%2Fg%2F11t4b2bj7_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1645,25 +1612,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F30" t="n">
-        <v>3.6</v>
+        <v>-7.866919</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.866919</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.174275</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Polres+Pemeriksaan+SIM/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb12c8db1a6d:0x11c4b9e469a46e85!8m2!3d-7.8669195!4d110.1742754!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEGZG9jdG9ymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU50YVc5cFNraFJFQUXgAQD6AQQIYxA7!16s%2Fg%2F11g98t_1n7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Polres+Pemeriksaan+SIM/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb12c8db1a6d:0x11c4b9e469a46e85!8m2!3d-7.8669195!4d110.1742754!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEGZG9jdG9ymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU50YVc5cFNraFJFQUXgAQD6AQQIYxA7!16s%2Fg%2F11g98t_1n7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1682,25 +1648,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-7.771604</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.771604</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.1841</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Girimulyo+I/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af056e2b2a8b9:0xd11c1e2e4b4d2a38!8m2!3d-7.7716042!4d110.1840995!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJtZFdGUUxXbEJSUkFC4AEA-gEECAAQMA!16s%2Fg%2F11bxc433t5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Girimulyo+I/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af056e2b2a8b9:0xd11c1e2e4b4d2a38!8m2!3d-7.7716042!4d110.1840995!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJtZFdGUUxXbEJSUkFC4AEA-gEECAAQMA!16s%2Fg%2F11bxc433t5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1723,25 +1688,24 @@
           <t>0822-4132-9804</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.8</v>
+        <v>-7.87327</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.87327</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.153842</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Inusa+Clinic+Wates/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb1986cafc99:0x3f6b38b4502aaf4f!8m2!3d-7.8732697!4d110.1538418!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEQc2tpbl9jYXJlX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObE1qaHFRMEpuRUFF4AEA-gEECB0QRg!16s%2Fg%2F11fmvbw7zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Inusa+Clinic+Wates/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb1986cafc99:0x3f6b38b4502aaf4f!8m2!3d-7.8732697!4d110.1538418!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEQc2tpbl9jYXJlX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObE1qaHFRMEpuRUFF4AEA-gEECB0QRg!16s%2Fg%2F11fmvbw7zd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1764,25 +1728,24 @@
           <t>0898-9286-281</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>-7.777315</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.777315</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.21255</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+drg.Oshi+Wulandari/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af13cf941a049:0x53b363b94c79e949!8m2!3d-7.777315!4d110.2125499!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgENZGVudGFsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOU09HWnBRbGRuRUFF4AEA-gEECAAQOg!16s%2Fg%2F11tw_t2bn7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+drg.Oshi+Wulandari/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af13cf941a049:0x53b363b94c79e949!8m2!3d-7.777315!4d110.2125499!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgENZGVudGFsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOU09HWnBRbGRuRUFF4AEA-gEECAAQOg!16s%2Fg%2F11tw_t2bn7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1805,25 +1768,24 @@
           <t>0895-3297-24700</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>-7.83333</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.83333</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.219019</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Sentolo+I/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afa23be306f5b:0x6033d5c25a7f8d21!8m2!3d-7.8333303!4d110.2190193!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI0ZG5ZMmQyNUJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1pzttlksw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Sentolo+I/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afa23be306f5b:0x6033d5c25a7f8d21!8m2!3d-7.8333303!4d110.2190193!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI0ZG5ZMmQyNUJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1pzttlksw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -1846,25 +1808,24 @@
           <t>(0274) 7458477</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F35" t="n">
-        <v>3.9</v>
+        <v>-7.688271</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.688271</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.257592</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Kalibawang/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af467d971b157:0x2541066d3ca35a08!8m2!3d-7.6882708!4d110.2575921!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0YWpaMk5tWjNFQUXgAQD6AQUIiwEQPQ!16s%2Fg%2F11cn17tv6h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Kalibawang/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af467d971b157:0x2541066d3ca35a08!8m2!3d-7.6882708!4d110.2575921!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0YWpaMk5tWjNFQUXgAQD6AQUIiwEQPQ!16s%2Fg%2F11cn17tv6h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1883,25 +1844,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.6</v>
+        <v>-7.862674</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.862674</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.153779</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+Dokter+Suwardi/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3a18730765:0xea5164e7b08e504b!8m2!3d-7.8626744!4d110.1537786!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnhkVjlEVUdKUkVBReABAPoBBAgAEDs!16s%2Fg%2F11bw5xkczz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+Dokter+Suwardi/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3a18730765:0xea5164e7b08e504b!8m2!3d-7.8626744!4d110.1537786!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnhkVjlEVUdKUkVBReABAPoBBAgAEDs!16s%2Fg%2F11bw5xkczz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1924,25 +1884,24 @@
           <t>0821-3723-5893</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.865598</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.865598</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.157651</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Adikarta+Husada+Akupuntur+%26+Bekam+Medis+Wates+Kulon+Progo/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbac3f84e84d:0x41474b390815883f!8m2!3d-7.8655981!4d110.1576511!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgESYWN1cHVuY3R1cmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0TkdWVExUUjNSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11fl5mjq_c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Adikarta+Husada+Akupuntur+%26+Bekam+Medis+Wates+Kulon+Progo/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbac3f84e84d:0x41474b390815883f!8m2!3d-7.8655981!4d110.1576511!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgESYWN1cHVuY3R1cmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0TkdWVExUUjNSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11fl5mjq_c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1961,25 +1920,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F38" t="n">
-        <v>3.8</v>
+        <v>-7.848511</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.848511</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.217863</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/UPTD+Puskesmas+Sentolo+2/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbd0a6dd3957:0x962910e1d16f6d6!8m2!3d-7.8485114!4d110.2178629!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5mYmpWdWFHcG5SUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11bc7ttc0d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/UPTD+Puskesmas+Sentolo+2/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbd0a6dd3957:0x962910e1d16f6d6!8m2!3d-7.8485114!4d110.2178629!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5mYmpWdWFHcG5SUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11bc7ttc0d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1998,25 +1956,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>-7.843298</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.843298</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.224421</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Posyandu+%C2%A8Mawar%C2%A8/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afa2d434b269f:0xc61ba26665beb22c!8m2!3d-7.8432982!4d110.2244212!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11ljdxrxcm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Posyandu+%C2%A8Mawar%C2%A8/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afa2d434b269f:0xc61ba26665beb22c!8m2!3d-7.8432982!4d110.2244212!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11ljdxrxcm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2039,25 +1996,24 @@
           <t>0897-1351-333</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.6</v>
+        <v>-7.864768</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.864768</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.157245</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Bellefirst+by+SHINTA+BEAUTY+CENTER/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb393a3a7e49:0x500cc7beb2961169!8m2!3d-7.8647679!4d110.1572449!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEMYmVhdXR5X3NhbG9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5FYXpsWFQxWkJFQUXgAQD6AQQIABA-!16s%2Fg%2F11rn4hj8pz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Bellefirst+by+SHINTA+BEAUTY+CENTER/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb393a3a7e49:0x500cc7beb2961169!8m2!3d-7.8647679!4d110.1572449!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEMYmVhdXR5X3NhbG9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5FYXpsWFQxWkJFQUXgAQD6AQQIABA-!16s%2Fg%2F11rn4hj8pz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2080,25 +2036,24 @@
           <t>0857-4721-8055</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.3</v>
+        <v>-7.74771</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.74771</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.212498</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Shinta+Beauty+Center+Nanggulan/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af1a7de3e8911:0xde4e7d499816afef!8m2!3d-7.7477097!4d110.2124981!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQxiZWF1dHlfc2Fsb27gAQA!16s%2Fg%2F11h6jq267k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Shinta+Beauty+Center+Nanggulan/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af1a7de3e8911:0xde4e7d499816afef!8m2!3d-7.7477097!4d110.2124981!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQxiZWF1dHlfc2Fsb27gAQA!16s%2Fg%2F11h6jq267k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2121,25 +2076,24 @@
           <t>0811-2650-922</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.3</v>
+        <v>-7.924036</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.924036</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.248094</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+LENDAH+II/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc546ac40deb:0xf5a82134ce7e433d!8m2!3d-7.9240358!4d110.2480938!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJLY21WVVluRjNSUkFC4AEA-gEECCUQMg!16s%2Fg%2F11btm7sgsc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+LENDAH+II/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc546ac40deb:0xf5a82134ce7e433d!8m2!3d-7.9240358!4d110.2480938!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJLY21WVVluRjNSUkFC4AEA-gEECCUQMg!16s%2Fg%2F11btm7sgsc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2162,25 +2116,24 @@
           <t>0811-2645-091</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.5</v>
+        <v>-7.671593</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.671593</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.166744</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PUSKESMAS+SAMIGALUH+I/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af2f591515ead:0x6c9c51f3b4427182!8m2!3d-7.6715933!4d110.1667437!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVy4AEA!16s%2Fg%2F11clsh4fnb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PUSKESMAS+SAMIGALUH+I/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af2f591515ead:0x6c9c51f3b4427182!8m2!3d-7.6715933!4d110.1667437!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVy4AEA!16s%2Fg%2F11clsh4fnb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2200,22 +2153,21 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-7.885829</v>
+      </c>
       <c r="G44" t="n">
-        <v>-7.885829</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.128044</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Pratama+Rawat+Inap+Siti+Chotijah/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x4cdf6846a4ea711b:0xc085be9a9469c0bb!8m2!3d-7.8858295!4d110.1280444!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11khj8z_xq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2230,25 +2182,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>-7.866125</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.866125</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.150038</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kita+Sehat/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb37a65dec09:0xec14a2ff6cb5e771!8m2!3d-7.866125!4d110.150038!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11bzrp5_08?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kita+Sehat/@-7.8594155,109.8672561,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb37a65dec09:0xec14a2ff6cb5e771!8m2!3d-7.866125!4d110.150038!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11bzrp5_08?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2275,25 +2226,24 @@
           <t>(0274) 6499649</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-7.799339</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.799339</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.3297</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+PMI+DIY/@-7.7993388,110.0413085,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af9c881176c97:0xa2a9ea24243790fb!8m2!3d-7.7993388!4d110.3296996!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk9OelZsZUVsQkVBReABAPoBBAgAEEk!16s%2Fg%2F11mv4smwq8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+PMI+DIY/@-7.7993388,110.0413085,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af9c881176c97:0xa2a9ea24243790fb!8m2!3d-7.7993388!4d110.3296996!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk9OelZsZUVsQkVBReABAPoBBAgAEEk!16s%2Fg%2F11mv4smwq8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2320,25 +2270,24 @@
           <t>0819-9888-9191</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.9</v>
+        <v>-7.845595</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.845595</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.218361</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/drg.+Lia+Desire+Octarina,+Sp.KG.+Praktek+Dokter+Gigi+Spesialis+Konservasi+Gigi+(DENT'Q+DENTAL+CARE)/@-7.7993388,110.0413085,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbcca35cf639:0xd833af48ec75b306!8m2!3d-7.8455952!4d110.2183611!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHZGVudGlzdJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSb01WOUhaelIzUlJBQuABAPoBBAgAED8!16s%2Fg%2F11dfslfmdm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/drg.+Lia+Desire+Octarina,+Sp.KG.+Praktek+Dokter+Gigi+Spesialis+Konservasi+Gigi+(DENT'Q+DENTAL+CARE)/@-7.7993388,110.0413085,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbcca35cf639:0xd833af48ec75b306!8m2!3d-7.8455952!4d110.2183611!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHZGVudGlzdJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSb01WOUhaelIzUlJBQuABAPoBBAgAED8!16s%2Fg%2F11dfslfmdm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2361,25 +2310,24 @@
           <t>0811-2633-255</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.2</v>
+        <v>-7.925654</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.925654</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.133978</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/UPTD+Puskesmas+Panjatan+II/@-7.9256539,109.8455871,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae323ffffffff:0xade6c24122799cd4!8m2!3d-7.9256539!4d110.1339782!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5LTlU4eVUwZEJFQUXgAQD6AQQIABA6!16s%2Fg%2F11b636rz_3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/UPTD+Puskesmas+Panjatan+II/@-7.9256539,109.8455871,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae323ffffffff:0xade6c24122799cd4!8m2!3d-7.9256539!4d110.1339782!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5LTlU4eVUwZEJFQUXgAQD6AQQIABA6!16s%2Fg%2F11b636rz_3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2406,25 +2354,24 @@
           <t>0877-1237-4217</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.3</v>
+        <v>-7.674033</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.674033</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.135535</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PUSKESMAS+Samigaluh+2/@-7.6740328,109.8471438,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7aed7ca94ee203:0x8d6b5e758538c771!8m2!3d-7.6740328!4d110.1355349!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvWDNCcFRtVkJFQUXgAQD6AQQIABBF!16s%2Fg%2F11bccgs_by?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PUSKESMAS+Samigaluh+2/@-7.6740328,109.8471438,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7aed7ca94ee203:0x8d6b5e758538c771!8m2!3d-7.6740328!4d110.1355349!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvWDNCcFRtVkJFQUXgAQD6AQQIABBF!16s%2Fg%2F11bccgs_by?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2451,25 +2398,24 @@
           <t>0812-2866-0300</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.5</v>
+        <v>-7.806517</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.806517</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.350446</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+24+Jam+Firdaus/@-7.8065174,110.0620551,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7a57f2729c8429:0xa918fd6f5e4f4e53!8m2!3d-7.8065174!4d110.3504462!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk9jWEIxUjFOUkVBReABAPoBBAgAEDU!16s%2Fg%2F11bvv5czn3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+24+Jam+Firdaus/@-7.8065174,110.0620551,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7a57f2729c8429:0xa918fd6f5e4f4e53!8m2!3d-7.8065174!4d110.3504462!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk9jWEIxUjFOUkVBReABAPoBBAgAEDU!16s%2Fg%2F11bvv5czn3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -2492,25 +2438,24 @@
           <t>(0274) 773724</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3.2</v>
+      </c>
       <c r="F51" t="n">
-        <v>3.2</v>
+        <v>-7.856742</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.856742</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.15567</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dr+Triatmadja+Ds,SpA/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb24ddc78353:0xb93706ec4817033a!8m2!3d-7.856742!4d110.1556704!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxlR0psVDFWQkVBReABAPoBBAgAED0!16s%2Fg%2F11f5bmnwl7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dr+Triatmadja+Ds,SpA/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb24ddc78353:0xb93706ec4817033a!8m2!3d-7.856742!4d110.1556704!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxlR0psVDFWQkVBReABAPoBBAgAED0!16s%2Fg%2F11f5bmnwl7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2533,25 +2478,24 @@
           <t>(0274) 2820224</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>-7.774645</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.774645</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.209742</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+NANGGULAN/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af0bed816d231:0xeb738b4ee4b7e2c5!8m2!3d-7.7746452!4d110.2097415!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ITVZwaFpXSlJFQUXgAQD6AQQIABA8!16s%2Fg%2F1pztc4t6t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+NANGGULAN/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af0bed816d231:0xeb738b4ee4b7e2c5!8m2!3d-7.7746452!4d110.2097415!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ITVZwaFpXSlJFQUXgAQD6AQQIABA8!16s%2Fg%2F1pztc4t6t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2574,25 +2518,24 @@
           <t>0811-2642-500</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.1</v>
+        <v>-7.902526</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.902526</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.20308</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PUSKESMAS+Lendah+I/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc43b4a9ac1b:0xad24d4fa5dc0503c!8m2!3d-7.9025258!4d110.2030798!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEYcHVibGljX2hlYWx0aF9kZXBhcnRtZW50mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0Y1MxdFdFMVJFQUXgAQD6AQQIABA_!16s%2Fg%2F11bc7st0g5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PUSKESMAS+Lendah+I/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc43b4a9ac1b:0xad24d4fa5dc0503c!8m2!3d-7.9025258!4d110.2030798!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEYcHVibGljX2hlYWx0aF9kZXBhcnRtZW50mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0Y1MxdFdFMVJFQUXgAQD6AQQIABA_!16s%2Fg%2F11bc7st0g5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2619,25 +2562,24 @@
           <t>(0274) 2890906</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F54" t="n">
-        <v>3.7</v>
+        <v>-7.886394</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.886394</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.074204</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Temon+1/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae533e30dad55:0x5d70c9724b569f2e!8m2!3d-7.8863936!4d110.074204!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJZY1hWVGMxVm5FQUXgAQD6AQQIABAu!16s%2Fg%2F11j0wvtz1w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Temon+1/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae533e30dad55:0x5d70c9724b569f2e!8m2!3d-7.8863936!4d110.074204!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJZY1hWVGMxVm5FQUXgAQD6AQQIABAu!16s%2Fg%2F11j0wvtz1w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2660,25 +2602,24 @@
           <t>0895-6320-87768</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>-7.863791</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.863791</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.161616</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dokter+Maria+Ulfa+Praktek+Umum/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3e6436aedf:0x103cb39bbb8842e5!8m2!3d-7.8637912!4d110.1616164!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11gcn5p5v2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dokter+Maria+Ulfa+Praktek+Umum/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3e6436aedf:0x103cb39bbb8842e5!8m2!3d-7.8637912!4d110.1616164!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11gcn5p5v2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2701,25 +2642,24 @@
           <t>0878-7534-7609</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-7.760911</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.760911</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.210646</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Violet+Skin+Care/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af11f914e9add:0x561190ab7333f7e1!8m2!3d-7.760911!4d110.210646!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARBza2luX2NhcmVfY2xpbmlj4AEA!16s%2Fg%2F11hbqch6_c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Violet+Skin+Care/@-7.856742,109.8672793,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af11f914e9add:0x561190ab7333f7e1!8m2!3d-7.760911!4d110.210646!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARBza2luX2NhcmVfY2xpbmlj4AEA!16s%2Fg%2F11hbqch6_c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2746,25 +2686,24 @@
           <t>(0274) 581887</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.8</v>
+        <v>-7.793319</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.793319</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.367815</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Realino/@-7.7933192,110.0794238,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7a58288a01a271:0x22973e4b12f21253!8m2!3d-7.7933192!4d110.3678149!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVhMlYxY3pGUlJSQULgAQD6AQQIABBA!16s%2Fg%2F11b61r6pxk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Realino/@-7.7933192,110.0794238,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7a58288a01a271:0x22973e4b12f21253!8m2!3d-7.7933192!4d110.3678149!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVhMlYxY3pGUlJSQULgAQD6AQQIABBA!16s%2Fg%2F11b61r6pxk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2787,25 +2726,24 @@
           <t>0852-2800-1843</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.6</v>
+        <v>-7.858083</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.858083</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.155669</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/drg+indina/@-7.8580827,109.8672781,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3b2db3c9c1:0x18b321aea2fd58f9!8m2!3d-7.8580827!4d110.1556692!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgENZGVudGFsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObE4xcFFkM0puUlJBQuABAPoBBAgAEBc!16s%2Fg%2F11b86c1t94?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/drg+indina/@-7.8580827,109.8672781,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb3b2db3c9c1:0x18b321aea2fd58f9!8m2!3d-7.8580827!4d110.1556692!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgENZGVudGFsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObE4xcFFkM0puUlJBQuABAPoBBAgAEBc!16s%2Fg%2F11b86c1t94?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2824,25 +2762,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-7.670314</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.670314</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.186725</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Bersalin+Bidan+Kristian/@-7.8580827,109.8672781,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af34cb498fc33:0x8ad1dcdaa0770e9f!8m2!3d-7.670314!4d110.1867248!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmlj4AEA!16s%2Fg%2F11h2pg4czj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Bersalin+Bidan+Kristian/@-7.8580827,109.8672781,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af34cb498fc33:0x8ad1dcdaa0770e9f!8m2!3d-7.670314!4d110.1867248!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmlj4AEA!16s%2Fg%2F11h2pg4czj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2865,25 +2802,24 @@
           <t>0819-3176-0774</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.853044</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.853044</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.175864</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+Fisioterapi+Tumbuh+Kembang+Anak%22Yeni%22/@-7.8580827,109.8672781,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb1b5208fb1f:0x6bee6083e2ecd0c2!8m2!3d-7.853044!4d110.1758641!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEUcGh5c2lvdGhlcmFweV9jZW50ZXLgAQA!16s%2Fg%2F11g9vwfjyz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+Fisioterapi+Tumbuh+Kembang+Anak%22Yeni%22/@-7.8580827,109.8672781,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb1b5208fb1f:0x6bee6083e2ecd0c2!8m2!3d-7.853044!4d110.1758641!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEUcGh5c2lvdGhlcmFweV9jZW50ZXLgAQA!16s%2Fg%2F11g9vwfjyz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2910,25 +2846,24 @@
           <t>(0274) 774014</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F61" t="n">
-        <v>3.9</v>
+        <v>-7.831486</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.831486</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.164162</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Puskesmas+Pengasih+I/@-7.8580827,109.8672781,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afaea0749646d:0x96f0b174380fca62!8m2!3d-7.8314861!4d110.1641621!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI0TXpsUVFsOW5SUkFC4AEA-gEECAAQLg!16s%2Fg%2F11b7rn85vc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2947,25 +2882,24 @@
           <t>0878-8909-1504</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.4</v>
+        <v>-7.82432</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.82432</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.328026</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+ANUGERAH/@-7.8243202,110.0396352,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af87662be7b41:0x30cd30523fa31fcf!8m2!3d-7.8243202!4d110.3280263!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXhYM054U3pGUlJSQULgAQD6AQQITRBJ!16s%2Fg%2F11b73p9gnh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+ANUGERAH/@-7.8243202,110.0396352,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af87662be7b41:0x30cd30523fa31fcf!8m2!3d-7.8243202!4d110.3280263!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXhYM054U3pGUlJSQULgAQD6AQQITRBJ!16s%2Fg%2F11b73p9gnh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2984,25 +2918,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.670392</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.670392</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.18668</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bidan+Cristina/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af3e4ed0d8569:0xe88786bcce7f05eb!8m2!3d-7.6703922!4d110.18668!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmlj4AEA!16s%2Fg%2F11g1lwd2z4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bidan+Cristina/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af3e4ed0d8569:0xe88786bcce7f05eb!8m2!3d-7.6703922!4d110.18668!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmlj4AEA!16s%2Fg%2F11g1lwd2z4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -3029,25 +2962,24 @@
           <t>(0274) 774524</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F64" t="n">
-        <v>3.5</v>
+        <v>-7.90581</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.90581</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.170396</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Puskesmas+Panjatan+I/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae359d20f2bc3:0xb29637c7ddd9cccb!8m2!3d-7.9058104!4d110.1703962!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5XTm1JMmVXVlJFQUXgAQD6AQQIABA_!16s%2Fg%2F1tdlrdh0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3063,22 +2995,21 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>-7.835066</v>
+      </c>
       <c r="G65" t="n">
-        <v>-7.835066</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.220401</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Praktek+dr.Darsono/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb982da4c51b:0x4166333e1867d60a!8m2!3d-7.8350659!4d110.2204006!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11hzvwh5rd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3093,25 +3024,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>-7.859659</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.859659</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.213072</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Sukoreno/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbc747d1310d:0x2b7ff0ea94401425!8m2!3d-7.8596587!4d110.2130715!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11clyt0mft?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Sukoreno/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbc747d1310d:0x2b7ff0ea94401425!8m2!3d-7.8596587!4d110.2130715!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11clyt0mft?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>8 tahun lalu</t>
         </is>
@@ -3134,25 +3064,24 @@
           <t>(0274) 773309</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.9</v>
+        <v>-7.858759</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.858759</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.148794</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BPJS+Kesehatan+Kulonprogo/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbe011e8f90f:0x75224552062e7efa!8m2!3d-7.8587586!4d110.1487937!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEWc29jaWFsX3NlY3VyaXR5X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcWNHSkxZMk5CRUFF4AEA-gEECAAQNw!16s%2Fg%2F11smrby_nw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BPJS+Kesehatan+Kulonprogo/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbe011e8f90f:0x75224552062e7efa!8m2!3d-7.8587586!4d110.1487937!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEWc29jaWFsX3NlY3VyaXR5X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcWNHSkxZMk5CRUFF4AEA-gEECAAQNw!16s%2Fg%2F11smrby_nw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -3175,25 +3104,24 @@
           <t>0811-269-332</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.6</v>
+        <v>-7.775937</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.775937</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.211529</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/dr.+Gigi+Cahyono+Sumukti/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af0e86ee9f921:0x8ee074469bcf4a8d!8m2!3d-7.7759374!4d110.2115285!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHZGVudGlzdJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb2VXVnhZMlYzRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11bwpv2d6m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/dr.+Gigi+Cahyono+Sumukti/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af0e86ee9f921:0x8ee074469bcf4a8d!8m2!3d-7.7759374!4d110.2115285!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHZGVudGlzdJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb2VXVnhZMlYzRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11bwpv2d6m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3220,25 +3148,24 @@
           <t>0823-1442-2217</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>5</v>
+      </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>-7.868886</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.868886</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.061454</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ortotik+Prostetik+Alat+Bantu+Terapi+Kulon+Progo/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae59b9c6755a5:0x406f2360d0382ca1!8m2!3d-7.8688863!4d110.061454!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11q9823__7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ortotik+Prostetik+Alat+Bantu+Terapi+Kulon+Progo/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae59b9c6755a5:0x406f2360d0382ca1!8m2!3d-7.8688863!4d110.061454!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11q9823__7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3261,25 +3188,24 @@
           <t>0818-0419-6265</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.7</v>
+        <v>-7.893511</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.893511</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.204192</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Dokter+Gigi+M.Zuvan/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc7112dffd79:0xae22c558b46eebac!8m2!3d-7.8935114!4d110.2041924!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEGZG9jdG9ymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5xZDFsNWRFZFJFQUXgAQD6AQQIABA8!16s%2Fg%2F11cnd67_gn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Dokter+Gigi+M.Zuvan/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc7112dffd79:0xae22c558b46eebac!8m2!3d-7.8935114!4d110.2041924!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEGZG9jdG9ymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5xZDFsNWRFZFJFQUXgAQD6AQQIABA8!16s%2Fg%2F11cnd67_gn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3298,25 +3224,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>-7.860984</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.860984</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.14716</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Poliklinik+Spesialis+Jiwa/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbda8923cb8d:0x81151ef5df648914!8m2!3d-7.8609843!4d110.1471602!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEMcHN5Y2hpYXRyaXN0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJNZEZwbFZscDNFQUXgAQD6AQQIABAZ!16s%2Fg%2F11sfk9q0sp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Poliklinik+Spesialis+Jiwa/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbda8923cb8d:0x81151ef5df648914!8m2!3d-7.8609843!4d110.1471602!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEMcHN5Y2hpYXRyaXN0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJNZEZwbFZscDNFQUXgAQD6AQQIABAZ!16s%2Fg%2F11sfk9q0sp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3335,25 +3260,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>-7.861198</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.861198</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.146804</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Poliklinik+Orthopaedi+dan+Traumatologi/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb50bde74bc3:0x628e30f068e15aa5!8m2!3d-7.8611984!4d110.1468042!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARFvcnRob3BlZGljX2NsaW5pY-ABAA!16s%2Fg%2F11rcw8v3mf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Poliklinik+Orthopaedi+dan+Traumatologi/@-7.6703922,109.8982889,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb50bde74bc3:0x628e30f068e15aa5!8m2!3d-7.8611984!4d110.1468042!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARFvcnRob3BlZGljX2NsaW5pY-ABAA!16s%2Fg%2F11rcw8v3mf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3372,25 +3296,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.2</v>
+        <v>-7.803633</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.803633</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.367778</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Yudonegaran/@-7.8036334,110.0793867,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7a5785a0c7b391:0x2640f2b871d6d8f5!8m2!3d-7.8036334!4d110.3677778!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlhkVGx4V1hCM1JSQULgAQD6AQQIABA7!16s%2Fg%2F11bzsdh7_b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Yudonegaran/@-7.8036334,110.0793867,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7a5785a0c7b391:0x2640f2b871d6d8f5!8m2!3d-7.8036334!4d110.3677778!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlhkVGx4V1hCM1JSQULgAQD6AQQIABA7!16s%2Fg%2F11bzsdh7_b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3409,25 +3332,24 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.3</v>
+        <v>-7.84022</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.84022</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.101536</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PUSKESMAS+KOKAP+I/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae50578b5a0bd:0x5d9743296601c359!8m2!3d-7.8402197!4d110.1015357!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU01Y1dGWWVVVkJFQUXgAQD6AQQIABA-!16s%2Fg%2F11c5g43p4s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PUSKESMAS+KOKAP+I/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae50578b5a0bd:0x5d9743296601c359!8m2!3d-7.8402197!4d110.1015357!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU01Y1dGWWVVVkJFQUXgAQD6AQQIABA-!16s%2Fg%2F11c5g43p4s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -3446,25 +3368,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.6</v>
+        <v>-7.859879</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.859879</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.15445</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/drg.+Retno+Jatiningrum/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb19354efd23:0xd55d13d4e8b21aaf!8m2!3d-7.8598787!4d110.1544503!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHZGVudGlzdJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOS05VMXRSVGRuUlJBQuABAPoBBAgAEC0!16s%2Fg%2F11fkpkcx4l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/drg.+Retno+Jatiningrum/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb19354efd23:0xd55d13d4e8b21aaf!8m2!3d-7.8598787!4d110.1544503!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHZGVudGlzdJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOS05VMXRSVGRuUlJBQuABAPoBBAgAEC0!16s%2Fg%2F11fkpkcx4l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3487,25 +3408,24 @@
           <t>0815-6951-202</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F76" t="n">
-        <v>3.5</v>
+        <v>-7.868013</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.868013</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.145899</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Smile+Dental/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbdf5cac321f:0x587c3e32bc1c04c9!8m2!3d-7.8680128!4d110.1458986!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ1kZW50YWxfY2xpbmlj4AEA!16s%2Fg%2F11qn4wrc1l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Smile+Dental/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbdf5cac321f:0x587c3e32bc1c04c9!8m2!3d-7.8680128!4d110.1458986!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ1kZW50YWxfY2xpbmlj4AEA!16s%2Fg%2F11qn4wrc1l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3528,25 +3448,24 @@
           <t>0813-9264-7211</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.947093</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.947093</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.224644</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Galur+II/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afdfb3bafdf89:0x78cf9df7fad9ec1!8m2!3d-7.9470933!4d110.2246444!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVy4AEA!16s%2Fg%2F11w9z_8b7p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Galur+II/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afdfb3bafdf89:0x78cf9df7fad9ec1!8m2!3d-7.9470933!4d110.2246444!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVy4AEA!16s%2Fg%2F11w9z_8b7p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3570,22 +3489,21 @@
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>-7.84755</v>
+      </c>
       <c r="G78" t="n">
-        <v>-7.84755</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.148192</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Kurex/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbeebeda23ed:0xf7a93360c1d55842!8m2!3d-7.8475497!4d110.1481915!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11f5pxywr1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3604,25 +3522,24 @@
           <t>0878-3052-2876</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>-7.855954</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.855954</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.231649</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BENGUK+KIDULAN+(M+Khotibul+Umam)/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afba027533ccf:0x4ee85056ed0cfb2!8m2!3d-7.8559537!4d110.2316492!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SASBlYXRpbmdfZGlzb3JkZXJfdHJlYXRtZW50X2NlbnRlcuABAA!16s%2Fg%2F11fr9zd68b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BENGUK+KIDULAN+(M+Khotibul+Umam)/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afba027533ccf:0x4ee85056ed0cfb2!8m2!3d-7.8559537!4d110.2316492!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SASBlYXRpbmdfZGlzb3JkZXJfdHJlYXRtZW50X2NlbnRlcuABAA!16s%2Fg%2F11fr9zd68b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3642,22 +3559,21 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-7.881461</v>
+      </c>
       <c r="G80" t="n">
-        <v>-7.881461</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.10838</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tempatnya+simbah/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae5805e716d85:0x3bc23fd9f8c1f6f8!8m2!3d-7.8814612!4d110.1083802!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARZmYW1pbHlfcGxhbm5pbmdfY2VudGVy4AEA!16s%2Fg%2F11ngwknk_h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3672,25 +3588,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>-7.828077</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.828077</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.221881</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bidan+Ngatiyem/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb44927eb4d7:0x21655f03210b45b3!8m2!3d-7.8280768!4d110.2218808!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEMYmlydGhfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0T1dObVlsbFJFQUXgAQD6AQQIABA0!16s%2Fg%2F11frdxrx2p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bidan+Ngatiyem/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb44927eb4d7:0x21655f03210b45b3!8m2!3d-7.8280768!4d110.2218808!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEMYmlydGhfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0T1dObVlsbFJFQUXgAQD6AQQIABA0!16s%2Fg%2F11frdxrx2p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3709,25 +3624,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>-7.742877</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.742877</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.149647</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bidan+Praktek+Titin+Wulandari,+A.Md,+Keb/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af14c27bafbff:0xf45f79a3b196c836!8m2!3d-7.7428766!4d110.149647!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQxiaXJ0aF9jZW50ZXLgAQA!16s%2Fg%2F11sv_jgpmk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bidan+Praktek+Titin+Wulandari,+A.Md,+Keb/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af14c27bafbff:0xf45f79a3b196c836!8m2!3d-7.7428766!4d110.149647!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQxiaXJ0aF9jZW50ZXLgAQA!16s%2Fg%2F11sv_jgpmk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3750,25 +3664,24 @@
           <t>0811-2641-555</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.2</v>
+        <v>-7.79868</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.79868</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.114892</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/UPTD+Puskesmas+Kokap+II/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7aef8d67c01e85:0x802246ed77f1fbcd!8m2!3d-7.79868!4d110.1148922!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QYkV0WGJHWkJFQUXgAQD6AQQIABAR!16s%2Fg%2F11c3tjq9_8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3783,25 +3696,24 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.8</v>
+        <v>-7.787384</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.787384</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.213148</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Therapy+Balur+Mas+Sidiq/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af1cbb7e7d05b:0x117a4347607101b!8m2!3d-7.787384!4d110.2131483!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11gr633y0z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Therapy+Balur+Mas+Sidiq/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af1cbb7e7d05b:0x117a4347607101b!8m2!3d-7.787384!4d110.2131483!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11gr633y0z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3824,25 +3736,24 @@
           <t>0813-9271-5716</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>-7.848945</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.848945</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.148444</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bekam+RuSeLa/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb0045cf8b05:0xf4d5428c637901a9!8m2!3d-7.8489451!4d110.148444!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmZMV1poTTFkQkVBReABAPoBBAhVECI!16s%2Fg%2F11ww7ny9ln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bekam+RuSeLa/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb0045cf8b05:0xf4d5428c637901a9!8m2!3d-7.8489451!4d110.148444!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmZMV1poTTFkQkVBReABAPoBBAhVECI!16s%2Fg%2F11ww7ny9ln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3870,22 +3781,21 @@
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>-7.883245</v>
+      </c>
       <c r="G86" t="n">
-        <v>-7.883245</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.142238</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Griya+Bekam+-+Pondok+Al+Qur'an+Muntiyamah/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbed8045a189:0x6a3f296115cb9845!8m2!3d-7.8832452!4d110.1422384!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmFNelpZWlVWM0VBReABAPoBBAgAEB8!16s%2Fg%2F11h04lddq5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3900,25 +3810,24 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.5</v>
+        <v>-7.805853</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.805853</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.124157</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Puskesmas+Pembantu+Kalibiru/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7aeff65c3faa4d:0xeb46cdf70e5c65d7!8m2!3d-7.8058532!4d110.1241571!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11b75mf6d7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3937,25 +3846,24 @@
           <t>0896-0691-7164</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4</v>
+      </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>-7.752157</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.752157</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.212484</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Queena~99+Massage%26Spa/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af198d06a557f:0x6240057f5e2a6793!8m2!3d-7.7521573!4d110.212484!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11h8v1z531?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Queena~99+Massage%26Spa/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af198d06a557f:0x6240057f5e2a6793!8m2!3d-7.7521573!4d110.212484!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11h8v1z531?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3974,25 +3882,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>-7.890822</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.890822</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.116786</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Sogan/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae4a000d209e7:0x121ca07e15709672!8m2!3d-7.890822!4d110.1167858!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11g7225ppx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Sogan/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7ae4a000d209e7:0x121ca07e15709672!8m2!3d-7.890822!4d110.1167858!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11g7225ppx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4016,22 +3923,21 @@
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>-7.875123</v>
+      </c>
       <c r="G90" t="n">
-        <v>-7.875123</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.153629</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/HDC+DENTAL+CLINIC+GIRIPENI/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb2ea931bc87:0x5fb900b4486818f8!8m2!3d-7.875123!4d110.1536287!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEHZGVudGlzdJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObGN6Y3RhRVpCRUFF4AEA-gEECAAQQA!16s%2Fg%2F11tck3201h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4050,25 +3956,24 @@
           <t>0812-2721-7499</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
       <c r="F91" t="n">
-        <v>5</v>
+        <v>-7.707954</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.707954</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.154519</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesdes+Kebonharjo/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af3bea4423e91:0xfc362fd2a9513fbd!8m2!3d-7.7079539!4d110.1545192!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11m244yxjy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesdes+Kebonharjo/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af3bea4423e91:0xfc362fd2a9513fbd!8m2!3d-7.7079539!4d110.1545192!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11m244yxjy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4092,22 +3997,21 @@
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>-7.852586</v>
+      </c>
       <c r="G92" t="n">
-        <v>-7.852586</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.148449</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Kecantikan+terbaik+di+Kulon+Progo/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afbab7bcb7ea1:0x4bc6840be698c6ba!8m2!3d-7.8525855!4d110.1484492!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQpmYWNpYWxfc3Bh4AEA!16s%2Fg%2F11t2_j3sz_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4127,22 +4031,21 @@
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>-7.898437</v>
+      </c>
       <c r="G93" t="n">
-        <v>-7.898437</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.212533</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Praktek+Dokter+Bersama+%22Isti'adah%22/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc12d005f98f:0x4a2652626c3dd605!8m2!3d-7.8984372!4d110.212533!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11dxd36vgj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4158,22 +4061,21 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>-7.875859</v>
+      </c>
       <c r="G94" t="n">
-        <v>-7.875859</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.154016</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PUSKESMAS/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb45a1538cc5:0x5b23cbd879fb34d1!8m2!3d-7.875859!4d110.154016!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11b6x7q08c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4197,22 +4099,21 @@
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>-7.744569</v>
+      </c>
       <c r="G95" t="n">
-        <v>-7.744569</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.146134</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Puskesmas+Girimulyo+II/@-7.8402197,109.8131446,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af1e0ad22bff5:0x56066e70d2b75ef2!8m2!3d-7.7445689!4d110.1461343!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVExYzNZMlZETlJSUkFC4AEA-gEECAAQIA!16s%2Fg%2F11bx569xp3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4231,25 +4132,24 @@
           <t>(0274) 6496135</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.5</v>
+        <v>-7.773985</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.773985</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.324512</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Utama+Nurani/@-7.7739846,110.0361212,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af7e7c0000001:0xe683451fb63285a2!8m2!3d-7.7739846!4d110.3245123!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTklORTFRVlhCQlJSQULgAQD6AQQIABA_!16s%2Fg%2F12cp64c9y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Utama+Nurani/@-7.7739846,110.0361212,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af7e7c0000001:0xe683451fb63285a2!8m2!3d-7.7739846!4d110.3245123!15sChJLbGluaWsgS3Vsb24gUHJvZ29aFCISa2xpbmlrIGt1bG9uIHByb2dvkgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTklORTFRVlhCQlJSQULgAQD6AQQIABA_!16s%2Fg%2F12cp64c9y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4273,22 +4173,21 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>-7.864579</v>
+      </c>
       <c r="G97" t="n">
-        <v>-7.864579</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.152574</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Konsultasi+Bisnis/@-7.8645788,109.8641829,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb39b03ca57f:0xa53d9bd6d2266a74!8m2!3d-7.8645788!4d110.152574!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11bc7r8c30?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4308,22 +4207,21 @@
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>-7.811036</v>
+      </c>
       <c r="G98" t="n">
-        <v>-7.811036</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.141748</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/K-link+produk/@-7.8645788,109.8641829,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb71b11a28a1:0xc9053bef3ee5fe23!8m2!3d-7.811036!4d110.1417484!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmlj4AEA!16s%2Fg%2F11t72cy7sz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4338,25 +4236,24 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>-7.926249</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.926249</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.191055</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Wahyuharjo/@-7.8645788,109.8641829,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc54fdd10db9:0x7495e0216a70e703!8m2!3d-7.9262493!4d110.1910553!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARdjb21tdW5pdHlfaGVhbHRoX2NlbnRlcuABAA!16s%2Fg%2F11f15f6png?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Wahyuharjo/@-7.8645788,109.8641829,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afc54fdd10db9:0x7495e0216a70e703!8m2!3d-7.9262493!4d110.1910553!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SARdjb21tdW5pdHlfaGVhbHRoX2NlbnRlcuABAA!16s%2Fg%2F11f15f6png?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -4380,22 +4277,21 @@
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>-7.869333</v>
+      </c>
       <c r="G100" t="n">
-        <v>-7.869333</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.144757</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Panen+Emas/@-7.8645788,109.8641829,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7afb4a0cd1bed3:0x3f6e97e14eaaf662!8m2!3d-7.869333!4d110.144757!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ53YWxrX2luX2NsaW5pY-ABAA!16s%2Fg%2F1pzs4yx0_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4415,22 +4311,21 @@
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>-7.753615</v>
+      </c>
       <c r="G101" t="n">
-        <v>-7.753615</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.206987</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TPMB+Sukati+Mom+n+Baby+Healthy/@-7.8645788,109.8641829,11z/data=!4m10!1m2!2m1!1sKlinik+Kulon+Progo!3m6!1s0x2e7af10041bbb4bf:0x8214d2ab9971b4de!8m2!3d-7.7536148!4d110.2069869!15sChJLbGluaWsgS3Vsb24gUHJvZ2-SAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11y7sjjj93?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
